--- a/7_Part 4 Graphics and tables/xlsx-files/Anzahl aufgezeichneter Wege.xlsx
+++ b/7_Part 4 Graphics and tables/xlsx-files/Anzahl aufgezeichneter Wege.xlsx
@@ -453,7 +453,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>6053</v>
+        <v>5851</v>
       </c>
     </row>
   </sheetData>
